--- a/Data/vac.xlsx
+++ b/Data/vac.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Desktop\Hypothesis testing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\hypothesis-testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611DC4C6-55F2-488D-9888-F5CCFDBD843A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9225C54-E6CE-46F4-98DF-F269A02E3EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84ECD423-F935-496D-A8C4-95AA5F3FAA0F}"/>
+    <workbookView xWindow="4596" yWindow="2808" windowWidth="17280" windowHeight="8964" xr2:uid="{84ECD423-F935-496D-A8C4-95AA5F3FAA0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
   <si>
     <t>County</t>
   </si>
@@ -1156,6 +1156,9 @@
   </si>
   <si>
     <t>Anderson</t>
+  </si>
+  <si>
+    <t>Andrews</t>
   </si>
 </sst>
 </file>
@@ -1214,11 +1217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1534,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C048F696-8867-4B37-AE35-FDACF6C0447B}">
-  <dimension ref="A1:NI2"/>
+  <dimension ref="A1:NI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:NI2"/>
+      <selection activeCell="A3" sqref="A3:NI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3774,6 +3778,1117 @@
         <v>91460</v>
       </c>
     </row>
+    <row r="3" spans="1:373" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1186</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1187</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1218</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1222</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1237</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1339</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1340</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1341</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1346</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1360</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1364</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1367</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1374</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1379</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1393</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1451</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1456</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1461</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1481</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1504</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1568</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1569</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1589</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1592</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1599</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1603</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>1753</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1759</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>1786</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1819</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>1843</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>1854</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>1888</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>1894</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1903</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>1915</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>1925</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>1930</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>1943</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>2092</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>2112</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>2127</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>2139</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>2163</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>2181</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>2201</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>2243</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>2252</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>2278</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>2415</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>2423</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>2501</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>2526</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>2551</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>2589</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>2749</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>2771</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>2786</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>2795</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>2855</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>2911</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>2970</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>3051</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>3051</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>3086</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>3099</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>3192</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>3249</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>3308</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>3363</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>3453</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>3471</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>3486</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>3528</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>3621</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>3724</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>3740</v>
+      </c>
+      <c r="CA3" s="3">
+        <v>3754</v>
+      </c>
+      <c r="CB3" s="3">
+        <v>3803</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>3826</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>3853</v>
+      </c>
+      <c r="CE3" s="3">
+        <v>3906</v>
+      </c>
+      <c r="CF3" s="3">
+        <v>3942</v>
+      </c>
+      <c r="CG3" s="3">
+        <v>4051</v>
+      </c>
+      <c r="CH3" s="3">
+        <v>4082</v>
+      </c>
+      <c r="CI3" s="3">
+        <v>4089</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>4100</v>
+      </c>
+      <c r="CK3" s="3">
+        <v>4210</v>
+      </c>
+      <c r="CL3" s="3">
+        <v>4278</v>
+      </c>
+      <c r="CM3" s="3">
+        <v>4352</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>4390</v>
+      </c>
+      <c r="CO3" s="3">
+        <v>4425</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>4499</v>
+      </c>
+      <c r="CQ3" s="3">
+        <v>4505</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>4523</v>
+      </c>
+      <c r="CS3" s="3">
+        <v>4570</v>
+      </c>
+      <c r="CT3" s="3">
+        <v>4576</v>
+      </c>
+      <c r="CU3" s="3">
+        <v>4594</v>
+      </c>
+      <c r="CV3" s="3">
+        <v>4627</v>
+      </c>
+      <c r="CW3" s="3">
+        <v>4676</v>
+      </c>
+      <c r="CX3" s="3">
+        <v>4692</v>
+      </c>
+      <c r="CY3" s="3">
+        <v>4713</v>
+      </c>
+      <c r="CZ3" s="3">
+        <v>4739</v>
+      </c>
+      <c r="DA3" s="3">
+        <v>4789</v>
+      </c>
+      <c r="DB3" s="3">
+        <v>4798</v>
+      </c>
+      <c r="DC3" s="3">
+        <v>4800</v>
+      </c>
+      <c r="DD3" s="3">
+        <v>4809</v>
+      </c>
+      <c r="DE3" s="3">
+        <v>4827</v>
+      </c>
+      <c r="DF3" s="3">
+        <v>4850</v>
+      </c>
+      <c r="DG3" s="3">
+        <v>4889</v>
+      </c>
+      <c r="DH3" s="3">
+        <v>4918</v>
+      </c>
+      <c r="DI3" s="3">
+        <v>4921</v>
+      </c>
+      <c r="DJ3" s="3">
+        <v>4946</v>
+      </c>
+      <c r="DK3" s="3">
+        <v>4955</v>
+      </c>
+      <c r="DL3" s="3">
+        <v>4978</v>
+      </c>
+      <c r="DM3" s="3">
+        <v>4998</v>
+      </c>
+      <c r="DN3" s="3">
+        <v>5008</v>
+      </c>
+      <c r="DO3" s="3">
+        <v>5046</v>
+      </c>
+      <c r="DP3" s="3">
+        <v>5096</v>
+      </c>
+      <c r="DQ3" s="3">
+        <v>5112</v>
+      </c>
+      <c r="DR3" s="3">
+        <v>5157</v>
+      </c>
+      <c r="DS3" s="3">
+        <v>5174</v>
+      </c>
+      <c r="DT3" s="3">
+        <v>5182</v>
+      </c>
+      <c r="DU3" s="3">
+        <v>5205</v>
+      </c>
+      <c r="DV3" s="3">
+        <v>5255</v>
+      </c>
+      <c r="DW3" s="3">
+        <v>5300</v>
+      </c>
+      <c r="DX3" s="3">
+        <v>5327</v>
+      </c>
+      <c r="DY3" s="3">
+        <v>5329</v>
+      </c>
+      <c r="DZ3" s="3">
+        <v>5342</v>
+      </c>
+      <c r="EA3" s="3">
+        <v>5373</v>
+      </c>
+      <c r="EB3" s="3">
+        <v>5425</v>
+      </c>
+      <c r="EC3" s="3">
+        <v>5445</v>
+      </c>
+      <c r="ED3" s="3">
+        <v>5463</v>
+      </c>
+      <c r="EE3" s="3">
+        <v>5470</v>
+      </c>
+      <c r="EF3" s="3">
+        <v>5483</v>
+      </c>
+      <c r="EG3" s="3">
+        <v>5491</v>
+      </c>
+      <c r="EH3" s="3">
+        <v>5527</v>
+      </c>
+      <c r="EI3" s="3">
+        <v>5548</v>
+      </c>
+      <c r="EJ3" s="3">
+        <v>5560</v>
+      </c>
+      <c r="EK3" s="3">
+        <v>5581</v>
+      </c>
+      <c r="EL3" s="3">
+        <v>5587</v>
+      </c>
+      <c r="EM3" s="3">
+        <v>5602</v>
+      </c>
+      <c r="EN3" s="3">
+        <v>5634</v>
+      </c>
+      <c r="EO3" s="3">
+        <v>5671</v>
+      </c>
+      <c r="EP3" s="3">
+        <v>5685</v>
+      </c>
+      <c r="EQ3" s="3">
+        <v>5709</v>
+      </c>
+      <c r="ER3" s="3">
+        <v>5712</v>
+      </c>
+      <c r="ES3" s="3">
+        <v>5729</v>
+      </c>
+      <c r="ET3" s="3">
+        <v>5741</v>
+      </c>
+      <c r="EU3" s="3">
+        <v>5780</v>
+      </c>
+      <c r="EV3" s="3">
+        <v>5816</v>
+      </c>
+      <c r="EW3" s="3">
+        <v>5848</v>
+      </c>
+      <c r="EX3" s="3">
+        <v>5860</v>
+      </c>
+      <c r="EY3" s="3">
+        <v>5889</v>
+      </c>
+      <c r="EZ3" s="3"/>
+      <c r="FA3" s="3"/>
+      <c r="FB3" s="3"/>
+      <c r="FC3" s="3"/>
+      <c r="FD3" s="3"/>
+      <c r="FE3" s="3">
+        <v>5972</v>
+      </c>
+      <c r="FF3" s="3">
+        <v>5973</v>
+      </c>
+      <c r="FG3" s="3">
+        <v>5985</v>
+      </c>
+      <c r="FH3" s="3">
+        <v>5995</v>
+      </c>
+      <c r="FI3" s="3">
+        <v>6036</v>
+      </c>
+      <c r="FJ3" s="3">
+        <v>6060</v>
+      </c>
+      <c r="FK3" s="3">
+        <v>6089</v>
+      </c>
+      <c r="FL3" s="3">
+        <v>6116</v>
+      </c>
+      <c r="FM3" s="3">
+        <v>6136</v>
+      </c>
+      <c r="FN3" s="3">
+        <v>6142</v>
+      </c>
+      <c r="FO3" s="3">
+        <v>6147</v>
+      </c>
+      <c r="FP3" s="3">
+        <v>6151</v>
+      </c>
+      <c r="FQ3" s="3">
+        <v>6160</v>
+      </c>
+      <c r="FR3" s="3">
+        <v>6172</v>
+      </c>
+      <c r="FS3" s="3">
+        <v>6173</v>
+      </c>
+      <c r="FT3" s="3">
+        <v>6243</v>
+      </c>
+      <c r="FU3" s="3">
+        <v>6254</v>
+      </c>
+      <c r="FV3" s="3">
+        <v>6258</v>
+      </c>
+      <c r="FW3" s="3">
+        <v>6273</v>
+      </c>
+      <c r="FX3" s="3">
+        <v>6310</v>
+      </c>
+      <c r="FY3" s="3">
+        <v>6329</v>
+      </c>
+      <c r="FZ3" s="3">
+        <v>6361</v>
+      </c>
+      <c r="GA3" s="3">
+        <v>6368</v>
+      </c>
+      <c r="GB3" s="3">
+        <v>6377</v>
+      </c>
+      <c r="GC3" s="3">
+        <v>6384</v>
+      </c>
+      <c r="GD3" s="3">
+        <v>6422</v>
+      </c>
+      <c r="GE3" s="3">
+        <v>6427</v>
+      </c>
+      <c r="GF3" s="3">
+        <v>6460</v>
+      </c>
+      <c r="GG3" s="3">
+        <v>6482</v>
+      </c>
+      <c r="GH3" s="3">
+        <v>6510</v>
+      </c>
+      <c r="GI3" s="3">
+        <v>6521</v>
+      </c>
+      <c r="GJ3" s="3">
+        <v>6529</v>
+      </c>
+      <c r="GK3" s="3">
+        <v>6544</v>
+      </c>
+      <c r="GL3" s="3">
+        <v>6601</v>
+      </c>
+      <c r="GM3" s="3">
+        <v>6613</v>
+      </c>
+      <c r="GN3" s="3">
+        <v>6656</v>
+      </c>
+      <c r="GO3" s="3">
+        <v>6660</v>
+      </c>
+      <c r="GP3" s="3">
+        <v>6667</v>
+      </c>
+      <c r="GQ3" s="3">
+        <v>6673</v>
+      </c>
+      <c r="GR3" s="3">
+        <v>6682</v>
+      </c>
+      <c r="GS3" s="3">
+        <v>6746</v>
+      </c>
+      <c r="GT3" s="3">
+        <v>6764</v>
+      </c>
+      <c r="GU3" s="3">
+        <v>6767</v>
+      </c>
+      <c r="GV3" s="3">
+        <v>6794</v>
+      </c>
+      <c r="GW3" s="3">
+        <v>6805</v>
+      </c>
+      <c r="GX3" s="3">
+        <v>6811</v>
+      </c>
+      <c r="GY3" s="3">
+        <v>6854</v>
+      </c>
+      <c r="GZ3" s="3">
+        <v>6870</v>
+      </c>
+      <c r="HA3" s="3">
+        <v>6889</v>
+      </c>
+      <c r="HB3" s="3">
+        <v>6904</v>
+      </c>
+      <c r="HC3" s="3">
+        <v>6926</v>
+      </c>
+      <c r="HD3" s="3">
+        <v>6931</v>
+      </c>
+      <c r="HE3" s="3">
+        <v>6943</v>
+      </c>
+      <c r="HF3" s="3">
+        <v>6975</v>
+      </c>
+      <c r="HG3" s="3">
+        <v>6975</v>
+      </c>
+      <c r="HH3" s="3">
+        <v>6985</v>
+      </c>
+      <c r="HI3" s="3">
+        <v>7030</v>
+      </c>
+      <c r="HJ3" s="3">
+        <v>7037</v>
+      </c>
+      <c r="HK3" s="3">
+        <v>7064</v>
+      </c>
+      <c r="HL3" s="3">
+        <v>7087</v>
+      </c>
+      <c r="HM3" s="3">
+        <v>7093</v>
+      </c>
+      <c r="HN3" s="3">
+        <v>7093</v>
+      </c>
+      <c r="HO3" s="3">
+        <v>7152</v>
+      </c>
+      <c r="HP3" s="3">
+        <v>7170</v>
+      </c>
+      <c r="HQ3" s="3">
+        <v>7196</v>
+      </c>
+      <c r="HR3" s="3">
+        <v>7203</v>
+      </c>
+      <c r="HS3" s="3">
+        <v>7211</v>
+      </c>
+      <c r="HT3" s="3">
+        <v>7230</v>
+      </c>
+      <c r="HU3" s="3">
+        <v>7278</v>
+      </c>
+      <c r="HV3" s="3">
+        <v>7306</v>
+      </c>
+      <c r="HW3" s="3">
+        <v>7341</v>
+      </c>
+      <c r="HX3" s="3">
+        <v>7388</v>
+      </c>
+      <c r="HY3" s="3">
+        <v>7391</v>
+      </c>
+      <c r="HZ3" s="3">
+        <v>7391</v>
+      </c>
+      <c r="IA3" s="3">
+        <v>7432</v>
+      </c>
+      <c r="IB3" s="3">
+        <v>7433</v>
+      </c>
+      <c r="IC3" s="3">
+        <v>7441</v>
+      </c>
+      <c r="ID3" s="3">
+        <v>7452</v>
+      </c>
+      <c r="IE3" s="3">
+        <v>7457</v>
+      </c>
+      <c r="IF3" s="3">
+        <v>7464</v>
+      </c>
+      <c r="IG3" s="3">
+        <v>7470</v>
+      </c>
+      <c r="IH3" s="3">
+        <v>7482</v>
+      </c>
+      <c r="II3" s="3">
+        <v>7487</v>
+      </c>
+      <c r="IJ3" s="3">
+        <v>7493</v>
+      </c>
+      <c r="IK3" s="3">
+        <v>7498</v>
+      </c>
+      <c r="IL3" s="3">
+        <v>7509</v>
+      </c>
+      <c r="IM3" s="3">
+        <v>7520</v>
+      </c>
+      <c r="IN3" s="3">
+        <v>7532</v>
+      </c>
+      <c r="IO3" s="3">
+        <v>7537</v>
+      </c>
+      <c r="IP3" s="3">
+        <v>7545</v>
+      </c>
+      <c r="IQ3" s="3">
+        <v>7550</v>
+      </c>
+      <c r="IR3" s="3">
+        <v>7567</v>
+      </c>
+      <c r="IS3" s="3">
+        <v>7576</v>
+      </c>
+      <c r="IT3" s="3">
+        <v>7591</v>
+      </c>
+      <c r="IU3" s="3">
+        <v>7598</v>
+      </c>
+      <c r="IV3" s="3">
+        <v>7613</v>
+      </c>
+      <c r="IW3" s="3">
+        <v>7617</v>
+      </c>
+      <c r="IX3" s="3">
+        <v>7625</v>
+      </c>
+      <c r="IY3" s="3">
+        <v>7631</v>
+      </c>
+      <c r="IZ3" s="3">
+        <v>7635</v>
+      </c>
+      <c r="JA3" s="3">
+        <v>7654</v>
+      </c>
+      <c r="JB3" s="3">
+        <v>7660</v>
+      </c>
+      <c r="JC3" s="3">
+        <v>7673</v>
+      </c>
+      <c r="JD3" s="3">
+        <v>7674</v>
+      </c>
+      <c r="JE3" s="3">
+        <v>7678</v>
+      </c>
+      <c r="JF3" s="3">
+        <v>7692</v>
+      </c>
+      <c r="JG3" s="3">
+        <v>7697</v>
+      </c>
+      <c r="JH3" s="3">
+        <v>7701</v>
+      </c>
+      <c r="JI3" s="3">
+        <v>7702</v>
+      </c>
+      <c r="JJ3" s="3">
+        <v>7711</v>
+      </c>
+      <c r="JK3" s="3">
+        <v>7715</v>
+      </c>
+      <c r="JL3" s="3">
+        <v>7729</v>
+      </c>
+      <c r="JM3" s="3">
+        <v>7730</v>
+      </c>
+      <c r="JN3" s="3">
+        <v>7737</v>
+      </c>
+      <c r="JO3" s="3">
+        <v>7748</v>
+      </c>
+      <c r="JP3" s="3">
+        <v>7748</v>
+      </c>
+      <c r="JQ3" s="3">
+        <v>7787</v>
+      </c>
+      <c r="JR3" s="3">
+        <v>7798</v>
+      </c>
+      <c r="JS3" s="3">
+        <v>7812</v>
+      </c>
+      <c r="JT3" s="3">
+        <v>7816</v>
+      </c>
+      <c r="JU3" s="3">
+        <v>7823</v>
+      </c>
+      <c r="JV3" s="3">
+        <v>7823</v>
+      </c>
+      <c r="JW3" s="3">
+        <v>7833</v>
+      </c>
+      <c r="JX3" s="3">
+        <v>7837</v>
+      </c>
+      <c r="JY3" s="3">
+        <v>7839</v>
+      </c>
+      <c r="JZ3" s="3">
+        <v>7859</v>
+      </c>
+      <c r="KA3" s="3">
+        <v>7864</v>
+      </c>
+      <c r="KB3" s="3">
+        <v>7869</v>
+      </c>
+      <c r="KC3" s="3">
+        <v>7882</v>
+      </c>
+      <c r="KD3" s="3">
+        <v>7898</v>
+      </c>
+      <c r="KE3" s="3">
+        <v>7945</v>
+      </c>
+      <c r="KF3" s="3">
+        <v>7957</v>
+      </c>
+      <c r="KG3" s="3">
+        <v>7992</v>
+      </c>
+      <c r="KH3" s="3">
+        <v>8029</v>
+      </c>
+      <c r="KI3" s="3">
+        <v>8038</v>
+      </c>
+      <c r="KJ3" s="3">
+        <v>8049</v>
+      </c>
+      <c r="KK3" s="3">
+        <v>8049</v>
+      </c>
+      <c r="KL3" s="3">
+        <v>8070</v>
+      </c>
+      <c r="KM3" s="3">
+        <v>8087</v>
+      </c>
+      <c r="KN3" s="3">
+        <v>8103</v>
+      </c>
+      <c r="KO3" s="3">
+        <v>8111</v>
+      </c>
+      <c r="KP3" s="3">
+        <v>8116</v>
+      </c>
+      <c r="KQ3" s="3">
+        <v>8120</v>
+      </c>
+      <c r="KR3" s="3">
+        <v>8134</v>
+      </c>
+      <c r="KS3" s="3">
+        <v>8140</v>
+      </c>
+      <c r="KT3" s="3">
+        <v>8155</v>
+      </c>
+      <c r="KU3" s="3">
+        <v>8167</v>
+      </c>
+      <c r="KV3" s="3">
+        <v>8174</v>
+      </c>
+      <c r="KW3" s="3">
+        <v>8181</v>
+      </c>
+      <c r="KX3" s="3">
+        <v>8198</v>
+      </c>
+      <c r="KY3" s="3">
+        <v>8227</v>
+      </c>
+      <c r="KZ3" s="3">
+        <v>8233</v>
+      </c>
+      <c r="LA3" s="3">
+        <v>8243</v>
+      </c>
+      <c r="LB3" s="3">
+        <v>8246</v>
+      </c>
+      <c r="LC3" s="3">
+        <v>8360</v>
+      </c>
+      <c r="LD3" s="3">
+        <v>8373</v>
+      </c>
+      <c r="LE3" s="3">
+        <v>8374</v>
+      </c>
+      <c r="LF3" s="3">
+        <v>8382</v>
+      </c>
+      <c r="LG3" s="3">
+        <v>8433</v>
+      </c>
+      <c r="LH3" s="3">
+        <v>8462</v>
+      </c>
+      <c r="LI3" s="3">
+        <v>8528</v>
+      </c>
+      <c r="LJ3" s="3">
+        <v>8536</v>
+      </c>
+      <c r="LK3" s="3">
+        <v>8542</v>
+      </c>
+      <c r="LL3" s="3">
+        <v>8545</v>
+      </c>
+      <c r="LM3" s="3">
+        <v>8580</v>
+      </c>
+      <c r="LN3" s="3">
+        <v>8615</v>
+      </c>
+      <c r="LO3" s="3">
+        <v>8693</v>
+      </c>
+      <c r="LP3" s="3">
+        <v>8706</v>
+      </c>
+      <c r="LQ3" s="3">
+        <v>8715</v>
+      </c>
+      <c r="LR3" s="3">
+        <v>8741</v>
+      </c>
+      <c r="LS3" s="3">
+        <v>8761</v>
+      </c>
+      <c r="LT3" s="3">
+        <v>8783</v>
+      </c>
+      <c r="LU3" s="3">
+        <v>8796</v>
+      </c>
+      <c r="LV3" s="3">
+        <v>8821</v>
+      </c>
+      <c r="LW3" s="3">
+        <v>8840</v>
+      </c>
+      <c r="LX3" s="3">
+        <v>8861</v>
+      </c>
+      <c r="LY3" s="3">
+        <v>8871</v>
+      </c>
+      <c r="LZ3" s="3">
+        <v>8886</v>
+      </c>
+      <c r="MA3" s="3">
+        <v>8911</v>
+      </c>
+      <c r="MB3" s="3">
+        <v>8920</v>
+      </c>
+      <c r="MC3" s="3">
+        <v>8939</v>
+      </c>
+      <c r="MD3" s="3">
+        <v>8958</v>
+      </c>
+      <c r="ME3" s="3">
+        <v>8973</v>
+      </c>
+      <c r="MF3" s="3">
+        <v>8998</v>
+      </c>
+      <c r="MG3" s="3">
+        <v>9012</v>
+      </c>
+      <c r="MH3" s="3">
+        <v>9020</v>
+      </c>
+      <c r="MI3" s="3">
+        <v>9027</v>
+      </c>
+      <c r="MJ3" s="3">
+        <v>9066</v>
+      </c>
+      <c r="MK3" s="3">
+        <v>9080</v>
+      </c>
+      <c r="ML3" s="3">
+        <v>9110</v>
+      </c>
+      <c r="MM3" s="3">
+        <v>9117</v>
+      </c>
+      <c r="MN3" s="3">
+        <v>9121</v>
+      </c>
+      <c r="MO3" s="3">
+        <v>9140</v>
+      </c>
+      <c r="MP3" s="3">
+        <v>9155</v>
+      </c>
+      <c r="MQ3" s="3">
+        <v>9207</v>
+      </c>
+      <c r="MR3" s="3">
+        <v>9234</v>
+      </c>
+      <c r="MS3" s="3">
+        <v>9244</v>
+      </c>
+      <c r="MT3" s="3">
+        <v>9270</v>
+      </c>
+      <c r="MU3" s="3">
+        <v>9295</v>
+      </c>
+      <c r="MV3" s="3">
+        <v>9316</v>
+      </c>
+      <c r="MW3" s="3">
+        <v>9356</v>
+      </c>
+      <c r="MX3" s="3">
+        <v>9386</v>
+      </c>
+      <c r="MY3" s="3">
+        <v>9393</v>
+      </c>
+      <c r="MZ3" s="3">
+        <v>9507</v>
+      </c>
+      <c r="NA3" s="3">
+        <v>9547</v>
+      </c>
+      <c r="NB3" s="3">
+        <v>9566</v>
+      </c>
+      <c r="NC3" s="3">
+        <v>9621</v>
+      </c>
+      <c r="ND3" s="3">
+        <v>9665</v>
+      </c>
+      <c r="NE3" s="3">
+        <v>9750</v>
+      </c>
+      <c r="NF3" s="3">
+        <v>9797</v>
+      </c>
+      <c r="NG3" s="3">
+        <v>9834</v>
+      </c>
+      <c r="NH3" s="3">
+        <v>9856</v>
+      </c>
+      <c r="NI3" s="3">
+        <v>9880</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
